--- a/ospp-application/src/main/resources/devdata/offtimes.xlsx
+++ b/ospp-application/src/main/resources/devdata/offtimes.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bananenhoschi/Dev/fhnw/ip6/IP6-Optimal-Scheduling-of-Project-Presentations/files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7127328-A070-A442-8684-4096C9C453A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="p"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{BB9F9AC0-D75E-2345-B23C-423F38DB838E}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="28245" windowHeight="17565" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1593866697" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1593866697" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1593866697" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1593866697"/>
     </ext>
   </extLst>
 </workbook>
@@ -35,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
   <si>
-    <t>initials</t>
+    <t>Kürzel LP</t>
   </si>
   <si>
     <t>Fr 08:00</t>
@@ -422,200 +412,179 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593866697" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="240" lang="default"/>
+            <pm:cs face="Basic Roman" sz="240" lang="default"/>
+            <pm:ea face="Basic Roman" sz="240" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Basic Sans"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1593866697" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1593866697" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1593866697"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1593866697"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1593866697" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
+      </pm:charStyles>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="D5D5D5"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="494949"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,156 +596,209 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F88662-5DA6-C74A-BBD0-DF5CFE26C077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.614754" defaultRowHeight="16.60"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -858,7 +880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -875,7 +897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -886,12 +908,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -902,12 +924,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -915,512 +937,536 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1593866697" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.787500" bottom="0.787500" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1593866697" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1593866697" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593866697" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>